--- a/ng/detrend_lasso.xlsx
+++ b/ng/detrend_lasso.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="460" windowWidth="22600" windowHeight="12820" tabRatio="500"/>
+    <workbookView xWindow="1740" yWindow="460" windowWidth="22600" windowHeight="12820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="lasso1_dt" sheetId="1" r:id="rId1"/>
@@ -156,10 +156,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -221,13 +227,13 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,645 +511,648 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F44"/>
+  <dimension ref="B3:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="6" max="6" width="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C5" s="2">
         <v>-2.3387000000000002E-2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D5" s="2">
         <v>-2.3387000000000002E-2</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E5" s="3">
         <v>-2.3387000000000002E-2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C6" s="2">
         <v>6.1317999999999998E-2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D6" s="2">
         <v>6.1317999999999998E-2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E6" s="3">
         <v>6.1317999999999998E-2</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C7" s="4">
         <v>0.122741</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <v>0.122741</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E7" s="3">
         <v>0.122741</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C8" s="4">
         <v>1.4715000000000001E-2</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <v>1.4715000000000001E-2</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E8" s="3">
         <v>1.4715000000000001E-2</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C9" s="2">
         <v>-7.4089999999999998E-3</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="1">
         <v>-7.4089999999999998E-3</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="3">
         <v>-7.4089999999999998E-3</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C10" s="4">
         <v>1.4643E-2</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <v>1.4643E-2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10" s="3">
         <v>1.4643E-2</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C11" s="4">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="1">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E11" s="3">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C12" s="2">
         <v>1.4897000000000001E-2</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <v>1.4897000000000001E-2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E12" s="3">
         <v>1.4897000000000001E-2</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C17" s="2">
         <v>-4.5525000000000003E-2</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="D17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C18" s="2">
         <v>8.4213999999999997E-2</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D18" s="2">
         <v>7.3094000000000006E-2</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="E18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C19" s="2">
         <v>-2.0978E-2</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="D19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C20" s="2">
         <v>1.0281999999999999E-2</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D20" s="5">
         <v>4.3000000000000002E-5</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E20" s="2">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="2">
         <v>9.1079999999999998E-3</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="D21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C22" s="2">
         <v>2.6367999999999999E-2</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D22" s="2">
         <v>9.8019999999999999E-3</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E22" s="2">
         <v>1.5923E-2</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="2">
         <v>2.8687000000000001E-2</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E23" s="2">
         <v>6.8357000000000001E-2</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="2">
         <v>-3.7400999999999997E-2</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="E24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="C25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="2">
         <v>-1.5514E-2</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="E25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="C26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="2">
         <v>8.1860000000000006E-3</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="C27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="2">
         <v>-3.1227000000000001E-2</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="3" t="s">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C34" s="2">
         <v>-4.5962999999999997E-2</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D34" s="1">
         <v>-6.1012999999999998E-2</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E34" s="3">
         <v>-6.0956000000000003E-2</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="3" t="s">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C35" s="2">
         <v>5.2391E-2</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D35" s="2">
         <v>4.8933999999999998E-2</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E35" s="3">
         <v>4.8712999999999999E-2</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="3" t="s">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C36" s="2">
         <v>-3.0086999999999999E-2</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="3" t="s">
+      <c r="D36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="3" t="s">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C37" s="2">
         <v>6.6100000000000004E-3</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="3" t="s">
+      <c r="D37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="3" t="s">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C38" s="2">
         <v>1.2260000000000001E-3</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D38" s="2">
         <v>1.9469999999999999E-3</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E38" s="2">
         <v>6.0499999999999996E-4</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="3" t="s">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C39" s="2">
         <v>8.3900000000000001E-4</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D39" s="2">
         <v>3.0790000000000001E-3</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E39" s="2">
         <v>3.032E-3</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F39" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="3" t="s">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C40" s="4">
         <v>3.5781E-2</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D40" s="2">
         <v>3.1766000000000003E-2</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E40" s="2">
         <v>3.2176999999999997E-2</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F40" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="3" t="s">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C41" s="4">
         <v>-3.7393000000000003E-2</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D41" s="2">
         <v>-1.939E-3</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E41" s="3">
         <v>-4.0114999999999998E-2</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F41" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="3" t="s">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C42" s="4">
         <v>5.0373000000000001E-2</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D42" s="1">
         <v>5.944E-2</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E42" s="3">
         <v>6.0214999999999998E-2</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F42" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="3" t="s">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C43" s="4">
         <v>8.9800000000000004E-4</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D43" s="1">
         <v>2.1649999999999998E-3</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E43" s="3">
         <v>4.0099999999999999E-4</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F43" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="3" t="s">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="3">
+      <c r="C44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="2">
         <v>-4.0308999999999998E-2</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="3" t="s">
+      <c r="E44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="3" t="s">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="3">
+      <c r="C45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="2">
         <v>-1.4259000000000001E-2</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E45" s="2">
         <v>-1.4628E-2</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F45" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="3" t="s">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="3">
+      <c r="C46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="2">
         <v>-6.0400000000000004E-4</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E46" s="2">
         <v>-8.4999999999999995E-4</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F46" s="2" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B32:F32"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/ng/detrend_lasso.xlsx
+++ b/ng/detrend_lasso.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
   <si>
     <t>NG</t>
   </si>
@@ -74,9 +74,6 @@
     <t>hsmw.lag1</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>D.a1m092.lag3</t>
   </si>
   <si>
@@ -150,13 +147,19 @@
   </si>
   <si>
     <t>Cpi-U: Transportation (82-84=100,Sa)</t>
+  </si>
+  <si>
+    <t>NG (excess bond return)</t>
+  </si>
+  <si>
+    <t>14th Nov, 2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -168,6 +171,21 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -197,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -220,19 +238,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,124 +696,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F46"/>
+  <dimension ref="B2:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="6" max="6" width="63" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+    </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F6" s="20" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>-2.3387000000000002E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>-2.3387000000000002E-2</v>
-      </c>
-      <c r="E5" s="3">
-        <v>-2.3387000000000002E-2</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2">
-        <v>6.1317999999999998E-2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>6.1317999999999998E-2</v>
-      </c>
-      <c r="E6" s="3">
-        <v>6.1317999999999998E-2</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.122741</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.122741</v>
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-2.3387000000000002E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-2.3387000000000002E-2</v>
       </c>
       <c r="E7" s="3">
-        <v>0.122741</v>
+        <v>-2.3387000000000002E-2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1.4715000000000001E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1.4715000000000001E-2</v>
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6.1317999999999998E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6.1317999999999998E-2</v>
       </c>
       <c r="E8" s="3">
-        <v>1.4715000000000001E-2</v>
+        <v>6.1317999999999998E-2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2">
-        <v>-7.4089999999999998E-3</v>
+        <v>5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.122741</v>
       </c>
       <c r="D9" s="1">
-        <v>-7.4089999999999998E-3</v>
+        <v>0.122741</v>
       </c>
       <c r="E9" s="3">
-        <v>-7.4089999999999998E-3</v>
+        <v>0.122741</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>30</v>
@@ -636,520 +813,508 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" s="4">
-        <v>1.4643E-2</v>
+        <v>1.4715000000000001E-2</v>
       </c>
       <c r="D10" s="1">
-        <v>1.4643E-2</v>
+        <v>1.4715000000000001E-2</v>
       </c>
       <c r="E10" s="3">
-        <v>1.4643E-2</v>
+        <v>1.4715000000000001E-2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-7.4089999999999998E-3</v>
       </c>
       <c r="D11" s="1">
-        <v>1.1000000000000001E-3</v>
+        <v>-7.4089999999999998E-3</v>
       </c>
       <c r="E11" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>-7.4089999999999998E-3</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1.4643E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.4643E-2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.4643E-2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C14" s="2">
         <v>1.4897000000000001E-2</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D14" s="1">
         <v>1.4897000000000001E-2</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E14" s="3">
         <v>1.4897000000000001E-2</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="6" t="s">
+      <c r="F14" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C36" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D36" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E36" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F36" s="20" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2">
-        <v>-4.5525000000000003E-2</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2">
-        <v>8.4213999999999997E-2</v>
-      </c>
-      <c r="D18" s="2">
-        <v>7.3094000000000006E-2</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="2">
-        <v>-2.0978E-2</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1.0281999999999999E-2</v>
-      </c>
-      <c r="D20" s="5">
-        <v>4.3000000000000002E-5</v>
-      </c>
-      <c r="E20" s="2">
-        <v>9.2999999999999992E-3</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="2">
-        <v>9.1079999999999998E-3</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2.6367999999999999E-2</v>
-      </c>
-      <c r="D22" s="2">
-        <v>9.8019999999999999E-3</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1.5923E-2</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="2">
-        <v>2.8687000000000001E-2</v>
-      </c>
-      <c r="E23" s="2">
-        <v>6.8357000000000001E-2</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="2">
-        <v>-3.7400999999999997E-2</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="2">
-        <v>-1.5514E-2</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="2">
-        <v>8.1860000000000006E-3</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="2">
-        <v>-3.1227000000000001E-2</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="2">
-        <v>-4.5962999999999997E-2</v>
-      </c>
-      <c r="D34" s="1">
-        <v>-6.1012999999999998E-2</v>
-      </c>
-      <c r="E34" s="3">
-        <v>-6.0956000000000003E-2</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="2">
-        <v>5.2391E-2</v>
-      </c>
-      <c r="D35" s="2">
-        <v>4.8933999999999998E-2</v>
-      </c>
-      <c r="E35" s="3">
-        <v>4.8712999999999999E-2</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="2">
-        <v>-3.0086999999999999E-2</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C37" s="2">
-        <v>6.6100000000000004E-3</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>37</v>
+        <v>-4.5525000000000003E-2</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C38" s="2">
-        <v>1.2260000000000001E-3</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1.9469999999999999E-3</v>
-      </c>
-      <c r="E38" s="2">
-        <v>6.0499999999999996E-4</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>38</v>
+        <v>8.4213999999999997E-2</v>
+      </c>
+      <c r="D38" s="6">
+        <v>7.3094000000000006E-2</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C39" s="2">
-        <v>8.3900000000000001E-4</v>
-      </c>
-      <c r="D39" s="2">
-        <v>3.0790000000000001E-3</v>
-      </c>
-      <c r="E39" s="2">
-        <v>3.032E-3</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>38</v>
+        <v>-2.0978E-2</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="4">
-        <v>3.5781E-2</v>
-      </c>
-      <c r="D40" s="2">
-        <v>3.1766000000000003E-2</v>
-      </c>
-      <c r="E40" s="2">
-        <v>3.2176999999999997E-2</v>
+        <v>15</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1.0281999999999999E-2</v>
+      </c>
+      <c r="D40" s="5">
+        <v>4.3000000000000002E-5</v>
+      </c>
+      <c r="E40" s="10">
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="4">
-        <v>-3.7393000000000003E-2</v>
-      </c>
-      <c r="D41" s="2">
-        <v>-1.939E-3</v>
-      </c>
-      <c r="E41" s="3">
-        <v>-4.0114999999999998E-2</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C41" s="2">
+        <v>9.1079999999999998E-3</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="8">
+        <v>2.6367999999999999E-2</v>
+      </c>
+      <c r="D42" s="2">
+        <v>9.8019999999999999E-3</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1.5923E-2</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="7">
+        <v>2.8687000000000001E-2</v>
+      </c>
+      <c r="E43" s="8">
+        <v>6.8357000000000001E-2</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="14">
+        <v>-3.7400999999999997E-2</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="15">
+        <v>-1.5514E-2</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="16">
+        <v>8.1860000000000006E-3</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="7">
+        <v>-3.1227000000000001E-2</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B66" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="2">
+        <v>-4.5962999999999997E-2</v>
+      </c>
+      <c r="D67" s="1">
+        <v>-6.1012999999999998E-2</v>
+      </c>
+      <c r="E67" s="3">
+        <v>-6.0956000000000003E-2</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="2">
+        <v>5.2391E-2</v>
+      </c>
+      <c r="D68" s="8">
+        <v>4.8933999999999998E-2</v>
+      </c>
+      <c r="E68" s="17">
+        <v>4.8712999999999999E-2</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="6">
+        <v>-3.0086999999999999E-2</v>
+      </c>
+      <c r="D69" s="18"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" s="6">
+        <v>6.6100000000000004E-3</v>
+      </c>
+      <c r="D70" s="12"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1.2260000000000001E-3</v>
+      </c>
+      <c r="D71" s="10">
+        <v>1.9469999999999999E-3</v>
+      </c>
+      <c r="E71" s="10">
+        <v>6.0499999999999996E-4</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="2">
+        <v>8.3900000000000001E-4</v>
+      </c>
+      <c r="D72" s="2">
+        <v>3.0790000000000001E-3</v>
+      </c>
+      <c r="E72" s="2">
+        <v>3.032E-3</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="4">
+        <v>3.5781E-2</v>
+      </c>
+      <c r="D73" s="2">
+        <v>3.1766000000000003E-2</v>
+      </c>
+      <c r="E73" s="2">
+        <v>3.2176999999999997E-2</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="4">
+        <v>-3.7393000000000003E-2</v>
+      </c>
+      <c r="D74" s="2">
+        <v>-1.939E-3</v>
+      </c>
+      <c r="E74" s="3">
+        <v>-4.0114999999999998E-2</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C75" s="4">
         <v>5.0373000000000001E-2</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D75" s="1">
         <v>5.944E-2</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E75" s="3">
         <v>6.0214999999999998E-2</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F75" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" s="19">
+        <v>8.9800000000000004E-4</v>
+      </c>
+      <c r="D76" s="1">
+        <v>2.1649999999999998E-3</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4.0099999999999999E-4</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B77" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="7">
+        <v>-4.0308999999999998E-2</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B78" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="4">
-        <v>8.9800000000000004E-4</v>
-      </c>
-      <c r="D43" s="1">
-        <v>2.1649999999999998E-3</v>
-      </c>
-      <c r="E43" s="3">
-        <v>4.0099999999999999E-4</v>
-      </c>
-      <c r="F43" s="2" t="s">
+      <c r="C78" s="9"/>
+      <c r="D78" s="7">
+        <v>-1.4259000000000001E-2</v>
+      </c>
+      <c r="E78" s="2">
+        <v>-1.4628E-2</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="2">
-        <v>-4.0308999999999998E-2</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="2" t="s">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B79" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="2">
-        <v>-1.4259000000000001E-2</v>
-      </c>
-      <c r="E45" s="2">
-        <v>-1.4628E-2</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B46" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="2">
+      <c r="C79" s="10"/>
+      <c r="D79" s="7">
         <v>-6.0400000000000004E-4</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E79" s="2">
         <v>-8.4999999999999995E-4</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>40</v>
+      <c r="F79" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B32:F32"/>
+  <mergeCells count="5">
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
